--- a/FillWeatherStat/6.xlsx
+++ b/FillWeatherStat/6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\shanzhashu\FillWeatherStat\Win32\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\shanzhashu\FillWeatherStat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8279311C-BB7D-4867-9A03-E59AD33CEAD5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1BA3B6-008E-4335-90CF-746F087684EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,26 +94,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">降水量
-（mm）
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雨强
-（mm/min）
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">标准值
-（mm）
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">传感器示值
-（mm）
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">传感器示值
 算术平均（mm）
 </t>
@@ -141,13 +121,33 @@
 区站号：J7231
 </t>
   </si>
+  <si>
+    <t>雨强
+（mm/min）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准值
+（mm）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器示值
+（mm）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>降水量
+（mm）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -378,31 +378,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -417,50 +438,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,7 +803,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F7"/>
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -818,257 +818,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="25"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="34">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="34">
         <v>0.72222222222222199</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="241.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="30">
+      <c r="A10" s="18">
         <v>10</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="21">
         <v>1</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="26">
         <v>10</v>
       </c>
       <c r="D10" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="26">
         <f>AVERAGE(D10:D12)</f>
         <v>10.233333333333333</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="26">
         <f>E10-C10</f>
         <v>0.2333333333333325</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="35"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="9">
         <v>10.3</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="19">
+      <c r="A13" s="19"/>
+      <c r="B13" s="21">
         <v>4</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="26">
         <v>10</v>
       </c>
       <c r="D13" s="9">
         <v>10.3</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="26">
         <f>AVERAGE(D13:D15)</f>
         <v>10.3</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="26">
         <f>E13-C13</f>
         <v>0.30000000000000071</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="9">
         <v>10.3</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="32"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="9">
         <v>10.3</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="16">
         <v>44981</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="D3:F3"/>
@@ -1085,18 +1097,6 @@
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.47244094488188998" right="0.39370078740157499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>

--- a/FillWeatherStat/6.xlsx
+++ b/FillWeatherStat/6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\shanzhashu\FillWeatherStat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\shanzhashu\FillWeatherStat\Win32\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1BA3B6-008E-4335-90CF-746F087684EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5636F06-871E-4558-BBE5-621C9298EB0D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,11 +94,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">传感器示值
-算术平均（mm）
-</t>
-  </si>
-  <si>
     <t>示值误差 （mm）</t>
   </si>
   <si>
@@ -139,6 +134,10 @@
   <si>
     <t>降水量
 （mm）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器示值算术平均(mm)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -378,6 +377,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -410,57 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,276 +810,264 @@
     <col min="1" max="1" width="13.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
     <col min="7" max="7" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="25"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="23">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="23">
         <v>0.72222222222222199</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="25"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="241.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18">
+      <c r="A10" s="35">
         <v>10</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="38">
         <v>1</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="13">
         <v>10</v>
       </c>
       <c r="D10" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="13">
         <f>AVERAGE(D10:D12)</f>
         <v>10.233333333333333</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="13">
         <f>E10-C10</f>
         <v>0.2333333333333325</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="9">
         <v>10.3</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="9">
         <v>10.199999999999999</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="21">
+      <c r="A13" s="36"/>
+      <c r="B13" s="38">
         <v>4</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="13">
         <v>10</v>
       </c>
       <c r="D13" s="9">
         <v>10.3</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="13">
         <f>AVERAGE(D13:D15)</f>
         <v>10.3</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="13">
         <f>E13-C13</f>
         <v>0.30000000000000071</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="27"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="9">
         <v>10.3</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="28"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="9">
         <v>10.3</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="1:6" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="33">
         <v>44981</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="F19" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="D3:F3"/>
@@ -1097,6 +1084,18 @@
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.47244094488188998" right="0.39370078740157499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
